--- a/All_models_raw_main.xlsx
+++ b/All_models_raw_main.xlsx
@@ -1806,7 +1806,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[31.27, 219.99]</t>
+          <t>[31.26, 219.98]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[0.54, 2.67]</t>
+          <t>[0.54, 2.68]</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[0.76, 1.65]</t>
+          <t>[0.76, 1.66]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -5012,17 +5012,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[29.77, 200.77]</t>
+          <t>[29.77, 200.76]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>108.79***</t>
+          <t>110.20***</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[54, 219.14]</t>
+          <t>[56.11, 216.4]</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.35***</t>
+          <t>1.34***</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -6059,7 +6059,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[0.51, 1.09]</t>
+          <t>[0.51, 1.1]</t>
         </is>
       </c>
     </row>
@@ -6121,12 +6121,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>[0.69, 2.7]</t>
+          <t>[0.69, 2.68]</t>
         </is>
       </c>
     </row>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>[0.63, 1.3]</t>
+          <t>[0.63, 1.28]</t>
         </is>
       </c>
     </row>
@@ -6562,7 +6562,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>[0.93, 1.93]</t>
+          <t>[0.94, 1.93]</t>
         </is>
       </c>
     </row>
@@ -7010,7 +7010,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.99*</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>1.23*</t>
+          <t>1.22*</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -7595,7 +7595,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>[0.06, 0.51]</t>
+          <t>[0.06, 0.5]</t>
         </is>
       </c>
     </row>
@@ -7642,7 +7642,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>[0.06, 0.71]</t>
+          <t>[0.06, 0.73]</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -7652,12 +7652,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>[0, 29354.26]</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -7719,12 +7714,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>[-0.89, 0.59]</t>
+          <t>[-0.88, 0.58]</t>
         </is>
       </c>
     </row>
@@ -7771,7 +7766,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>[-0.81, 0.87]</t>
+          <t>[-0.82, 0.88]</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -7781,12 +7776,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>[-0.69, 0.69]</t>
+          <t>[-0.24, 0.25]</t>
         </is>
       </c>
     </row>
@@ -7833,7 +7828,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>[-1, 0.73]</t>
+          <t>[-1, 0.76]</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -7843,12 +7838,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>[0.28, 0.99]</t>
+          <t>[-0.24, 0.93]</t>
         </is>
       </c>
     </row>
@@ -7989,7 +7984,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>[12.35, 16.55]</t>
+          <t>[12.42, 16.45]</t>
         </is>
       </c>
     </row>
@@ -10214,7 +10209,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>[0.09, 2.04]</t>
+          <t>[0.09, 2.05]</t>
         </is>
       </c>
     </row>
@@ -10281,7 +10276,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>[0.08, 0.5]</t>
+          <t>[0.08, 0.49]</t>
         </is>
       </c>
     </row>
@@ -10343,7 +10338,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>[0, 35.41]</t>
+          <t>[0, 35.18]</t>
         </is>
       </c>
     </row>
@@ -12900,7 +12895,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>[0, 56.22]</t>
+          <t>[0, 41.53]</t>
         </is>
       </c>
     </row>
@@ -13081,7 +13076,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -13143,12 +13138,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>[-0.52, 0.5]</t>
+          <t>[-0.51, 0.5]</t>
         </is>
       </c>
     </row>
@@ -13210,7 +13205,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>[0.44, 0.59]</t>
+          <t>[0.43, 0.6]</t>
         </is>
       </c>
     </row>
@@ -15804,7 +15799,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[-0.62, 0.97]</t>
+          <t>[-0.61, 0.97]</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -15861,7 +15856,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[-1, 1]</t>
+          <t>[-1, 0.99]</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">

--- a/All_models_raw_main.xlsx
+++ b/All_models_raw_main.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[3.68, 3.98]</t>
+          <t>[ 3.68,  3.68]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -452,7 +452,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[3.82, 4.14]</t>
+          <t>[ 3.82,  3.82]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -462,7 +462,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[1.8, 2.07]</t>
+          <t>[ 1.80,  1.80]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[1.69, 1.96]</t>
+          <t>[ 1.69,  1.69]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -482,7 +482,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[39.2, 49.67]</t>
+          <t>[39.20, 39.20]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[37, 47.04]</t>
+          <t>[37.00, 37.00]</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.21, 0.45]</t>
+          <t>[ 0.21,  0.21]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.11, 0.13]</t>
+          <t>[-0.11, -0.11]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[-0.28, -0.04]</t>
+          <t>[-0.28, -0.28]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[-0.09, 0.12]</t>
+          <t>[-0.09, -0.09]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[1.03, 1.37]</t>
+          <t>[ 1.03,  1.03]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[1.22, 1.54]</t>
+          <t>[ 1.22,  1.22]</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.51, -0.04]</t>
+          <t>[-0.51, -0.51]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-0.21, 0.2]</t>
+          <t>[-0.21, -0.21]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[0.04, 0.39]</t>
+          <t>[ 0.04,  0.04]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-0.26, 0.08]</t>
+          <t>[-0.26, -0.26]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[0.88, 1.33]</t>
+          <t>[ 0.88,  0.88]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0.67, 1.01]</t>
+          <t>[ 0.67,  0.67]</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.01, 0.01]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-0.02, -0.01]</t>
+          <t>[-0.02, -0.02]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[0, 0.01]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[0, 0.01]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[0.99, 1]</t>
+          <t>[ 0.99,  0.99]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1, 1.01]</t>
+          <t>[ 1.00,  1.00]</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.03, 0.12]</t>
+          <t>[-0.03, -0.03]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-0.03, 0.11]</t>
+          <t>[-0.03, -0.03]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[-0.22, -0.09]</t>
+          <t>[-0.22, -0.22]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[-0.18, -0.06]</t>
+          <t>[-0.18, -0.18]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[0.83, 0.97]</t>
+          <t>[ 0.83,  0.83]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[0.8, 0.94]</t>
+          <t>[ 0.80,  0.80]</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[1.01, 1.06]</t>
+          <t>[ 1.01,  1.01]</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[1.03, 1.07]</t>
+          <t>[ 1.03,  1.03]</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-0.33, 0.6]</t>
+          <t>[-0.33, -0.33]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[-0.14, 0.87]</t>
+          <t>[-0.14, -0.14]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[-0.11, 0.75]</t>
+          <t>[-0.11, -0.11]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[-0.8, 0.08]</t>
+          <t>[-0.80, -0.80]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[0.53, 1.06]</t>
+          <t>[ 0.53,  0.53]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0.72, 1.45]</t>
+          <t>[ 0.72,  0.72]</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-0.73, 1.06]</t>
+          <t>[-0.73, -0.73]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[-1.7, 0.25]</t>
+          <t>[-1.70, -1.70]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[-0.73, 0.92]</t>
+          <t>[-0.73, -0.73]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[-0.34, 1.33]</t>
+          <t>[-0.34, -0.34]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[0.89, 3.75]</t>
+          <t>[ 0.89,  0.89]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0.63, 2.44]</t>
+          <t>[ 0.63,  0.63]</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[0.94, 1.05]</t>
+          <t>[ 0.94,  0.94]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[1, 1.12]</t>
+          <t>[ 1.00,  1.00]</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[0.55, 0.75]</t>
+          <t>[ 0.55,  0.55]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.62, 0.83]</t>
+          <t>[ 0.62,  0.62]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[0.54, 0.72]</t>
+          <t>[ 0.54,  0.54]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[0.54, 0.73]</t>
+          <t>[ 0.54,  0.54]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[0.4, 0.56]</t>
+          <t>[ 0.40,  0.40]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[0.2, 0.97]</t>
+          <t>[ 0.20,  0.20]</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[0.12, 0.49]</t>
+          <t>[ 0.12,  0.12]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[0.08, 0.5]</t>
+          <t>[ 0.08,  0.08]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[0.17, 0.44]</t>
+          <t>[ 0.17,  0.17]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[0.16, 0.42]</t>
+          <t>[ 0.16,  0.16]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[0.16, 0.45]</t>
+          <t>[ 0.16,  0.16]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[0.06, 0.52]</t>
+          <t>[ 0.06,  0.06]</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[0.12, 0.92]</t>
+          <t>[ 0.12,  0.12]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.02, 1.29]</t>
+          <t>[ 0.02,  0.02]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[0.08, 0.68]</t>
+          <t>[ 0.08,  0.08]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[0.1, 0.67]</t>
+          <t>[ 0.10,  0.10]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[0.01, 1.02]</t>
+          <t>[ 0.01,  0.01]</t>
         </is>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[-0.86, 0.27]</t>
+          <t>[-0.86, -0.86]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[-0.88, 0.4]</t>
+          <t>[-0.88, -0.88]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[-0.87, -0.05]</t>
+          <t>[-0.87, -0.87]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[-0.7, 0.03]</t>
+          <t>[-0.70, -0.70]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[-0.26, 0.66]</t>
+          <t>[-0.26, -0.26]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-0.92, 0.66]</t>
+          <t>[-0.92, -0.92]</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[-0.62, 0.86]</t>
+          <t>[-0.62, -0.62]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[-0.99, 0.87]</t>
+          <t>[-0.99, -0.99]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[-0.73, 0.98]</t>
+          <t>[-0.73, -0.73]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[-0.63, 0.45]</t>
+          <t>[-0.63, -0.63]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[-0.98, 0.98]</t>
+          <t>[-0.98, -0.98]</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[-0.9, 0.99]</t>
+          <t>[-0.90, -0.90]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[-1, 1]</t>
+          <t>[-1.00, -1.00]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[-1, 1]</t>
+          <t>[-1.00, -1.00]</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[-0.99, 0.36]</t>
+          <t>[-0.99, -0.99]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[0.8, 0.82]</t>
+          <t>[ 0.80,  0.80]</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[0.59, 0.64]</t>
+          <t>[ 0.59,  0.59]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.55, 0.6]</t>
+          <t>[ 0.55,  0.55]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[0.51, 0.56]</t>
+          <t>[ 0.51,  0.51]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[0.45, 0.49]</t>
+          <t>[ 0.45,  0.45]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>[13.88, 16.89]</t>
+          <t>[13.88, 13.88]</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[12.92, 16.06]</t>
+          <t>[12.92, 12.92]</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[0.13, 0.26]</t>
+          <t>[ 0.13,  0.13]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[3.68, 6.25]</t>
+          <t>[ 3.68,  3.68]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[3.08, 5.23]</t>
+          <t>[ 3.08,  3.08]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[1.46, 3.69]</t>
+          <t>[ 1.46,  1.46]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[0.98, 2.84]</t>
+          <t>[ 0.98,  0.98]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[31.26, 219.98]</t>
+          <t>[31.27, 31.27]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[54.35, 214.9]</t>
+          <t>[54.35, 54.35]</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.12, 0.4]</t>
+          <t>[ 0.12,  0.12]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.16, 0.09]</t>
+          <t>[-0.16, -0.16]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[-0.21, 0.05]</t>
+          <t>[-0.21, -0.21]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[-0.07, 0.16]</t>
+          <t>[-0.07, -0.07]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[0.91, 1.24]</t>
+          <t>[ 0.91,  0.91]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[1.03, 1.3]</t>
+          <t>[ 1.03,  1.03]</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.47, -0.01]</t>
+          <t>[-0.47, -0.47]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-0.2, 0.2]</t>
+          <t>[-0.20, -0.20]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[0, 0.36]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-0.27, 0.05]</t>
+          <t>[-0.27, -0.27]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[0.94, 1.51]</t>
+          <t>[ 0.94,  0.94]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0.64, 0.95]</t>
+          <t>[ 0.64,  0.64]</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.01, 0.01]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-0.02, -0.01]</t>
+          <t>[-0.02, -0.02]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[0, 0.01]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[0, 0.01]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[0.99, 1.01]</t>
+          <t>[ 0.99,  0.99]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1, 1.02]</t>
+          <t>[ 1.00,  1.00]</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.09, 0.09]</t>
+          <t>[-0.09, -0.09]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-0.06, 0.1]</t>
+          <t>[-0.06, -0.06]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[-0.17, -0.02]</t>
+          <t>[-0.17, -0.17]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[-0.18, -0.05]</t>
+          <t>[-0.18, -0.18]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[0.86, 1.05]</t>
+          <t>[ 0.86,  0.86]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[0.84, 1]</t>
+          <t>[ 0.84,  0.84]</t>
         </is>
       </c>
     </row>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[1.02, 1.07]</t>
+          <t>[ 1.02,  1.02]</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[1.04, 1.08]</t>
+          <t>[ 1.04,  1.04]</t>
         </is>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[0.02, 0.1]</t>
+          <t>[ 0.02,  0.02]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[-0.03, 0.05]</t>
+          <t>[-0.03, -0.03]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[-0.08, 0]</t>
+          <t>[-0.08, -0.08]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[-0.04, 0.02]</t>
+          <t>[-0.04, -0.04]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>[1, 1.09]</t>
+          <t>[ 1.00,  1.00]</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[1.03, 1.12]</t>
+          <t>[ 1.03,  1.03]</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-0.03, 0.05]</t>
+          <t>[-0.03, -0.03]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.01, 0.09]</t>
+          <t>[ 0.01,  0.01]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[-0.05, 0.02]</t>
+          <t>[-0.05, -0.05]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[-0.08, -0.01]</t>
+          <t>[-0.08, -0.08]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[1.06, 1.16]</t>
+          <t>[ 1.06,  1.06]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[1.04, 1.12]</t>
+          <t>[ 1.04,  1.04]</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[0, 0.01]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0, 0.01]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[-0.01, 0]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[0, 0.01]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[0.99, 1]</t>
+          <t>[ 0.99,  0.99]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0.99, 1]</t>
+          <t>[ 0.99,  0.99]</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[0.93, 1.07]</t>
+          <t>[ 0.93,  0.93]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[0.95, 1.07]</t>
+          <t>[ 0.95,  0.95]</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[0.92, 1.04]</t>
+          <t>[ 0.92,  0.92]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[0.94, 1.05]</t>
+          <t>[ 0.94,  0.94]</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[0.96, 1.08]</t>
+          <t>[ 0.96,  0.96]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[0.94, 1.05]</t>
+          <t>[ 0.94,  0.94]</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[0.91, 1.02]</t>
+          <t>[ 0.91,  0.91]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[0.93, 1.05]</t>
+          <t>[ 0.93,  0.93]</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[0.95, 1.03]</t>
+          <t>[ 0.95,  0.95]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[0.96, 1.03]</t>
+          <t>[ 0.96,  0.96]</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[1, 1.1]</t>
+          <t>[ 1.00,  1.00]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[0.97, 1.05]</t>
+          <t>[ 0.97,  0.97]</t>
         </is>
       </c>
     </row>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[0.9, 0.98]</t>
+          <t>[ 0.90,  0.90]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[0.94, 1.02]</t>
+          <t>[ 0.94,  0.94]</t>
         </is>
       </c>
     </row>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>[0.95, 1.05]</t>
+          <t>[ 0.95,  0.95]</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[0.94, 1.03]</t>
+          <t>[ 0.94,  0.94]</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[1.03, 1.13]</t>
+          <t>[ 1.03,  1.03]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[0.96, 1.05]</t>
+          <t>[ 0.96,  0.96]</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[0.94, 1.02]</t>
+          <t>[ 0.94,  0.94]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[1.03, 1.12]</t>
+          <t>[ 1.03,  1.03]</t>
         </is>
       </c>
     </row>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[-0.24, 0.91]</t>
+          <t>[-0.24, -0.24]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.02, 1.25]</t>
+          <t>[ 0.02,  0.02]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[-0.54, 0.46]</t>
+          <t>[-0.54, -0.54]</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[-1.23, -0.16]</t>
+          <t>[-1.23, -1.23]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[0.58, 1.37]</t>
+          <t>[ 0.58,  0.58]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[0.5, 1.1]</t>
+          <t>[ 0.50,  0.50]</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[-0.88, 0.99]</t>
+          <t>[-0.88, -0.88]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[-2.06, -0.06]</t>
+          <t>[-2.06, -2.06]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[-0.56, 1.05]</t>
+          <t>[-0.56, -0.56]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[-0.05, 1.7]</t>
+          <t>[-0.05, -0.05]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[0.54, 2.68]</t>
+          <t>[ 0.54,  0.54]</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>[0.67, 2.69]</t>
+          <t>[ 0.67,  0.67]</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[0.95, 1.06]</t>
+          <t>[ 0.95,  0.95]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[0.99, 1.09]</t>
+          <t>[ 0.99,  0.99]</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[-0.33, 0.04]</t>
+          <t>[-0.33, -0.33]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[-0.41, -0.01]</t>
+          <t>[-0.41, -0.41]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[0.1, 0.42]</t>
+          <t>[ 0.10,  0.10]</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[-0.1, 0.24]</t>
+          <t>[-0.10, -0.10]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>[0.91, 1.2]</t>
+          <t>[ 0.91,  0.91]</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>[1.09, 1.42]</t>
+          <t>[ 1.09,  1.09]</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[-0.18, 0.18]</t>
+          <t>[-0.18, -0.18]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[0.04, 0.42]</t>
+          <t>[ 0.04,  0.04]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[-0.2, 0.11]</t>
+          <t>[-0.20, -0.20]</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[0.02, 0.36]</t>
+          <t>[ 0.02,  0.02]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[0.93, 1.22]</t>
+          <t>[ 0.93,  0.93]</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>[0.78, 0.99]</t>
+          <t>[ 0.78,  0.78]</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[-0.01, 0.04]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[-0.02, 0.04]</t>
+          <t>[-0.02, -0.02]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[-0.04, 0.01]</t>
+          <t>[-0.04, -0.04]</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[-0.05, 0]</t>
+          <t>[-0.05, -0.05]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[0.99, 1.03]</t>
+          <t>[ 0.99,  0.99]</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -3258,7 +3258,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[1, 1.05]</t>
+          <t>[ 1.00,  1.00]</t>
         </is>
       </c>
     </row>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>[0.57, 1.34]</t>
+          <t>[ 0.57,  0.57]</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>[0.79, 1.76]</t>
+          <t>[ 0.79,  0.79]</t>
         </is>
       </c>
     </row>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[0.76, 1.66]</t>
+          <t>[ 0.76,  0.76]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>[0.63, 1.3]</t>
+          <t>[ 0.63,  0.63]</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>[0.67, 1.59]</t>
+          <t>[ 0.67,  0.67]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>[0.48, 1.09]</t>
+          <t>[ 0.48,  0.48]</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>[0.56, 1.23]</t>
+          <t>[ 0.56,  0.56]</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>[0.92, 1.91]</t>
+          <t>[ 0.92,  0.92]</t>
         </is>
       </c>
     </row>
@@ -3483,7 +3483,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>[1, 1.42]</t>
+          <t>[ 1.00,  1.00]</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>[0.86, 1.19]</t>
+          <t>[ 0.86,  0.86]</t>
         </is>
       </c>
     </row>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>[0.8, 1.28]</t>
+          <t>[ 0.80,  0.80]</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>[0.8, 1.21]</t>
+          <t>[ 0.80,  0.80]</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>[0.84, 1.03]</t>
+          <t>[ 0.84,  0.84]</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>[0.91, 1.1]</t>
+          <t>[ 0.91,  0.91]</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>[0.92, 1.13]</t>
+          <t>[ 0.92,  0.92]</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3634,7 +3634,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>[0.87, 1.05]</t>
+          <t>[ 0.87,  0.87]</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>[0.9, 1.11]</t>
+          <t>[ 0.90,  0.90]</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>[0.98, 1.2]</t>
+          <t>[ 0.98,  0.98]</t>
         </is>
       </c>
     </row>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>[0.95, 1.17]</t>
+          <t>[ 0.95,  0.95]</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>[0.89, 1.08]</t>
+          <t>[ 0.89,  0.89]</t>
         </is>
       </c>
     </row>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[-0.02, 0.01]</t>
+          <t>[-0.02, -0.02]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[-0.01, 0.02]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3765,7 +3765,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[-0.01, 0.02]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>[-0.01, 0.02]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>[0.99, 1.02]</t>
+          <t>[ 0.99,  0.99]</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>[0.98, 1]</t>
+          <t>[ 0.98,  0.98]</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[-0.01, 0.03]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[-0.03, 0]</t>
+          <t>[-0.03, -0.03]</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>[0.97, 1]</t>
+          <t>[ 0.97,  0.97]</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[-0.02, 0.01]</t>
+          <t>[-0.02, -0.02]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>[-0.02, 0.01]</t>
+          <t>[-0.02, -0.02]</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>[0.98, 1]</t>
+          <t>[ 0.98,  0.98]</t>
         </is>
       </c>
     </row>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[-0.08, -0.01]</t>
+          <t>[-0.08, -0.08]</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[-0.02, 0.03]</t>
+          <t>[-0.02, -0.02]</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>[0.98, 1.02]</t>
+          <t>[ 0.98,  0.98]</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[-0.02, 0.03]</t>
+          <t>[-0.02, -0.02]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>[-0.01, 0.03]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>[0.96, 1]</t>
+          <t>[ 0.96,  0.96]</t>
         </is>
       </c>
     </row>
@@ -4025,7 +4025,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[-0.27, 0.34]</t>
+          <t>[-0.27, -0.27]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>[-0.31, 0.22]</t>
+          <t>[-0.31, -0.31]</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>[1.02, 1.49]</t>
+          <t>[ 1.02,  1.02]</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[-0.21, 0.39]</t>
+          <t>[-0.21, -0.21]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>[-0.47, 0.06]</t>
+          <t>[-0.47, -0.47]</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>[0.85, 1.25]</t>
+          <t>[ 0.85,  0.85]</t>
         </is>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[-0.58, -0.02]</t>
+          <t>[-0.58, -0.58]</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[-0.25, 0.24]</t>
+          <t>[-0.25, -0.25]</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>[0.87, 1.33]</t>
+          <t>[ 0.87,  0.87]</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[-0.26, 0.45]</t>
+          <t>[-0.26, -0.26]</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[-0.3, 0.48]</t>
+          <t>[-0.30, -0.30]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[-0.07, 0.54]</t>
+          <t>[-0.07, -0.07]</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>[-0.48, 0.19]</t>
+          <t>[-0.48, -0.48]</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>[0.8, 1.3]</t>
+          <t>[ 0.80,  0.80]</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>[0.83, 1.3]</t>
+          <t>[ 0.83,  0.83]</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[-0.17, 0.45]</t>
+          <t>[-0.17, -0.17]</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[0.03, 0.7]</t>
+          <t>[ 0.03,  0.03]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[-0.53, 0]</t>
+          <t>[-0.53, -0.53]</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4273,7 +4273,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>[-0.61, -0.02]</t>
+          <t>[-0.61, -0.61]</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>[0.68, 1.06]</t>
+          <t>[ 0.68,  0.68]</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>[0.74, 1.14]</t>
+          <t>[ 0.74,  0.74]</t>
         </is>
       </c>
     </row>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[0.53, 0.74]</t>
+          <t>[ 0.53,  0.53]</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.59, 0.81]</t>
+          <t>[ 0.59,  0.59]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[0.48, 0.66]</t>
+          <t>[ 0.48,  0.48]</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>[0.51, 0.7]</t>
+          <t>[ 0.51,  0.51]</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>[0.32, 0.47]</t>
+          <t>[ 0.32,  0.32]</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>[0.3, 0.42]</t>
+          <t>[ 0.30,  0.30]</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[0.17, 0.5]</t>
+          <t>[ 0.17,  0.17]</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4424,7 +4424,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.08, 0.52]</t>
+          <t>[ 0.08,  0.08]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[0.19, 0.46]</t>
+          <t>[ 0.19,  0.19]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>[0.15, 0.42]</t>
+          <t>[ 0.15,  0.15]</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>[0.14, 0.44]</t>
+          <t>[ 0.14,  0.14]</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[0.1, 0.85]</t>
+          <t>[ 0.10,  0.10]</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.02, 1.15]</t>
+          <t>[ 0.02,  0.02]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[0.08, 0.8]</t>
+          <t>[ 0.08,  0.08]</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>[0.05, 0.97]</t>
+          <t>[ 0.05,  0.05]</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[-0.85, 0.11]</t>
+          <t>[-0.85, -0.85]</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[-0.82, 0.39]</t>
+          <t>[-0.82, -0.82]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[-0.88, -0.09]</t>
+          <t>[-0.88, -0.88]</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>[-0.66, 0.22]</t>
+          <t>[-0.66, -0.66]</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>[-0.35, 0.73]</t>
+          <t>[-0.35, -0.35]</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[-0.62, 0.88]</t>
+          <t>[-0.62, -0.62]</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[-1, 0.98]</t>
+          <t>[-1.00, -1.00]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[-0.75, 0.98]</t>
+          <t>[-0.75, -0.75]</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4625,7 +4625,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>[-0.94, 0.96]</t>
+          <t>[-0.94, -0.94]</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[-0.63, 0.79]</t>
+          <t>[-0.63, -0.63]</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[-0.99, 1]</t>
+          <t>[-0.99, -0.99]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[-1, 0.99]</t>
+          <t>[-1.00, -1.00]</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>[-1, 0.87]</t>
+          <t>[-1.00, -1.00]</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[0.58, 0.64]</t>
+          <t>[ 0.58,  0.58]</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.55, 0.6]</t>
+          <t>[ 0.55,  0.55]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[0.51, 0.55]</t>
+          <t>[ 0.51,  0.51]</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>[0.45, 0.49]</t>
+          <t>[ 0.45,  0.45]</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>[13.13, 16.18]</t>
+          <t>[13.13, 13.13]</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>[12.59, 15.39]</t>
+          <t>[12.59, 12.59]</t>
         </is>
       </c>
     </row>
@@ -4850,7 +4850,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[0.13, 0.26]</t>
+          <t>[ 0.13,  0.13]</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[3.58, 6.14]</t>
+          <t>[ 3.58,  3.58]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4982,7 +4982,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[3.11, 5.24]</t>
+          <t>[ 3.11,  3.11]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[1.44, 3.65]</t>
+          <t>[ 1.44,  1.44]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[0.97, 2.82]</t>
+          <t>[ 0.97,  0.97]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -5012,17 +5012,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[29.77, 200.76]</t>
+          <t>[29.77, 29.77]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>110.20***</t>
+          <t>110.21***</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[56.11, 216.4]</t>
+          <t>[56.11, 56.11]</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.21, 0.46]</t>
+          <t>[ 0.21,  0.21]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.11, 0.13]</t>
+          <t>[-0.11, -0.11]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[-0.28, -0.05]</t>
+          <t>[-0.28, -0.28]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[-0.1, 0.12]</t>
+          <t>[-0.10, -0.10]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[1.01, 1.37]</t>
+          <t>[ 1.01,  1.01]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[1.19, 1.52]</t>
+          <t>[ 1.19,  1.19]</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.51, -0.03]</t>
+          <t>[-0.51, -0.51]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-0.21, 0.2]</t>
+          <t>[-0.21, -0.21]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[0.04, 0.38]</t>
+          <t>[ 0.04,  0.04]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -5173,7 +5173,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-0.26, 0.07]</t>
+          <t>[-0.26, -0.26]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[0.9, 1.47]</t>
+          <t>[ 0.90,  0.90]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0.59, 0.9]</t>
+          <t>[ 0.59,  0.59]</t>
         </is>
       </c>
     </row>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.01, 0.01]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-0.02, -0.01]</t>
+          <t>[-0.02, -0.02]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[0, 0.01]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[0, 0.01]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[0.99, 1.01]</t>
+          <t>[ 0.99,  0.99]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1, 1.01]</t>
+          <t>[ 1.00,  1.00]</t>
         </is>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.03, 0.12]</t>
+          <t>[-0.03, -0.03]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-0.03, 0.11]</t>
+          <t>[-0.03, -0.03]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[-0.22, -0.08]</t>
+          <t>[-0.22, -0.22]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[-0.18, -0.06]</t>
+          <t>[-0.18, -0.18]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[0.85, 1.01]</t>
+          <t>[ 0.85,  0.85]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -5327,7 +5327,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[0.81, 0.96]</t>
+          <t>[ 0.81,  0.81]</t>
         </is>
       </c>
     </row>
@@ -5364,7 +5364,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[1.02, 1.07]</t>
+          <t>[ 1.02,  1.02]</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[1.04, 1.08]</t>
+          <t>[ 1.04,  1.04]</t>
         </is>
       </c>
     </row>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[0.93, 1.06]</t>
+          <t>[ 0.93,  0.93]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[0.95, 1.07]</t>
+          <t>[ 0.95,  0.95]</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[0.92, 1.04]</t>
+          <t>[ 0.92,  0.92]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[0.94, 1.06]</t>
+          <t>[ 0.94,  0.94]</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[0.96, 1.09]</t>
+          <t>[ 0.96,  0.96]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[0.93, 1.05]</t>
+          <t>[ 0.93,  0.93]</t>
         </is>
       </c>
     </row>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[0.91, 1.02]</t>
+          <t>[ 0.91,  0.91]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -5673,7 +5673,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[0.94, 1.06]</t>
+          <t>[ 0.94,  0.94]</t>
         </is>
       </c>
     </row>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[0.95, 1.03]</t>
+          <t>[ 0.95,  0.95]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[0.97, 1.04]</t>
+          <t>[ 0.97,  0.97]</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[1, 1.1]</t>
+          <t>[ 1.00,  1.00]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[0.97, 1.05]</t>
+          <t>[ 0.97,  0.97]</t>
         </is>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[0.9, 0.98]</t>
+          <t>[ 0.90,  0.90]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[0.94, 1.02]</t>
+          <t>[ 0.94,  0.94]</t>
         </is>
       </c>
     </row>
@@ -5851,7 +5851,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>[0.96, 1.05]</t>
+          <t>[ 0.96,  0.96]</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[0.94, 1.03]</t>
+          <t>[ 0.94,  0.94]</t>
         </is>
       </c>
     </row>
@@ -5898,7 +5898,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[1.04, 1.14]</t>
+          <t>[ 1.04,  1.04]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[0.97, 1.05]</t>
+          <t>[ 0.97,  0.97]</t>
         </is>
       </c>
     </row>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[0.95, 1.04]</t>
+          <t>[ 0.95,  0.95]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[1.04, 1.14]</t>
+          <t>[ 1.04,  1.04]</t>
         </is>
       </c>
     </row>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[-0.22, 0.93]</t>
+          <t>[-0.22, -0.22]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -6019,7 +6019,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.03, 1.25]</t>
+          <t>[ 0.03,  0.03]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[-0.49, 0.5]</t>
+          <t>[-0.49, -0.49]</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -6039,7 +6039,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[-1.23, -0.16]</t>
+          <t>[-1.23, -1.23]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[0.62, 1.43]</t>
+          <t>[ 0.62,  0.62]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -6059,7 +6059,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[0.51, 1.1]</t>
+          <t>[ 0.51,  0.51]</t>
         </is>
       </c>
     </row>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[-0.96, 0.9]</t>
+          <t>[-0.96, -0.96]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[-2.08, -0.11]</t>
+          <t>[-2.08, -2.08]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[-0.58, 1.03]</t>
+          <t>[-0.58, -0.58]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[-0.03, 1.72]</t>
+          <t>[-0.03, -0.03]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[0.5, 2.35]</t>
+          <t>[ 0.50,  0.50]</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>[0.69, 2.68]</t>
+          <t>[ 0.69,  0.69]</t>
         </is>
       </c>
     </row>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[0.95, 1.06]</t>
+          <t>[ 0.95,  0.95]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[0.98, 1.08]</t>
+          <t>[ 0.98,  0.98]</t>
         </is>
       </c>
     </row>
@@ -6190,7 +6190,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[-0.32, 0.05]</t>
+          <t>[-0.32, -0.32]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[-0.41, -0.01]</t>
+          <t>[-0.41, -0.41]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -6210,7 +6210,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[0.1, 0.42]</t>
+          <t>[ 0.10,  0.10]</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[-0.1, 0.24]</t>
+          <t>[-0.10, -0.10]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>[0.9, 1.19]</t>
+          <t>[ 0.90,  0.90]</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -6240,7 +6240,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>[1.07, 1.39]</t>
+          <t>[ 1.07,  1.07]</t>
         </is>
       </c>
     </row>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[-0.17, 0.19]</t>
+          <t>[-0.17, -0.17]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[0.04, 0.42]</t>
+          <t>[ 0.04,  0.04]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -6277,7 +6277,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[-0.2, 0.11]</t>
+          <t>[-0.20, -0.20]</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[0.02, 0.36]</t>
+          <t>[ 0.02,  0.02]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -6297,7 +6297,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[0.95, 1.22]</t>
+          <t>[ 0.95,  0.95]</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>[0.8, 1.03]</t>
+          <t>[ 0.80,  0.80]</t>
         </is>
       </c>
     </row>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[-0.01, 0.04]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[-0.02, 0.04]</t>
+          <t>[-0.02, -0.02]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -6344,7 +6344,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[-0.04, 0]</t>
+          <t>[-0.04, -0.04]</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[-0.05, 0]</t>
+          <t>[-0.05, -0.05]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[0.98, 1.02]</t>
+          <t>[ 0.98,  0.98]</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -6374,7 +6374,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[1, 1.04]</t>
+          <t>[ 1.00,  1.00]</t>
         </is>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>[0.55, 1.25]</t>
+          <t>[ 0.55,  0.55]</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -6421,7 +6421,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>[0.75, 1.64]</t>
+          <t>[ 0.75,  0.75]</t>
         </is>
       </c>
     </row>
@@ -6458,7 +6458,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[0.76, 1.62]</t>
+          <t>[ 0.76,  0.76]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>[0.63, 1.28]</t>
+          <t>[ 0.63,  0.63]</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>[0.71, 1.66]</t>
+          <t>[ 0.71,  0.71]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -6515,7 +6515,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>[0.52, 1.15]</t>
+          <t>[ 0.52,  0.52]</t>
         </is>
       </c>
     </row>
@@ -6552,7 +6552,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>[0.58, 1.24]</t>
+          <t>[ 0.58,  0.58]</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>[0.94, 1.93]</t>
+          <t>[ 0.94,  0.94]</t>
         </is>
       </c>
     </row>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>[1.01, 1.42]</t>
+          <t>[ 1.01,  1.01]</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>[0.87, 1.2]</t>
+          <t>[ 0.87,  0.87]</t>
         </is>
       </c>
     </row>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>[0.8, 1.25]</t>
+          <t>[ 0.80,  0.80]</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>[0.8, 1.2]</t>
+          <t>[ 0.80,  0.80]</t>
         </is>
       </c>
     </row>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>[0.85, 1.03]</t>
+          <t>[ 0.85,  0.85]</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>[0.92, 1.11]</t>
+          <t>[ 0.92,  0.92]</t>
         </is>
       </c>
     </row>
@@ -6740,7 +6740,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>[0.94, 1.14]</t>
+          <t>[ 0.94,  0.94]</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -6750,7 +6750,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>[0.87, 1.05]</t>
+          <t>[ 0.87,  0.87]</t>
         </is>
       </c>
     </row>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>[0.88, 1.09]</t>
+          <t>[ 0.88,  0.88]</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -6797,7 +6797,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>[0.97, 1.18]</t>
+          <t>[ 0.97,  0.97]</t>
         </is>
       </c>
     </row>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>[0.96, 1.18]</t>
+          <t>[ 0.96,  0.96]</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>[0.9, 1.1]</t>
+          <t>[ 0.90,  0.90]</t>
         </is>
       </c>
     </row>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[-0.02, 0.01]</t>
+          <t>[-0.02, -0.02]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[-0.01, 0.02]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[-0.01, 0.02]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>[-0.01, 0.02]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -6901,7 +6901,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>[0.99, 1.01]</t>
+          <t>[ 0.99,  0.99]</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -6911,7 +6911,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>[0.98, 1]</t>
+          <t>[ 0.98,  0.98]</t>
         </is>
       </c>
     </row>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[-0.01, 0.03]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[-0.03, 0]</t>
+          <t>[-0.03, -0.03]</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -6958,7 +6958,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>[0.97, 1]</t>
+          <t>[ 0.97,  0.97]</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[-0.03, 0.01]</t>
+          <t>[-0.03, -0.03]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>[-0.02, 0.01]</t>
+          <t>[-0.02, -0.02]</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>[0.98, 1]</t>
+          <t>[ 0.98,  0.98]</t>
         </is>
       </c>
     </row>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[-0.08, -0.01]</t>
+          <t>[-0.08, -0.08]</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -7047,7 +7047,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[-0.02, 0.03]</t>
+          <t>[-0.02, -0.02]</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -7062,7 +7062,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>[0.98, 1.02]</t>
+          <t>[ 0.98,  0.98]</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[-0.02, 0.03]</t>
+          <t>[-0.02, -0.02]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -7104,7 +7104,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>[-0.01, 0.03]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>[0.97, 1]</t>
+          <t>[ 0.97,  0.97]</t>
         </is>
       </c>
     </row>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[-0.26, 0.31]</t>
+          <t>[-0.26, -0.26]</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[-0.27, 0.34]</t>
+          <t>[-0.27, -0.27]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -7156,7 +7156,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[-0.26, 0.24]</t>
+          <t>[-0.26, -0.26]</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -7166,7 +7166,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>[-0.31, 0.22]</t>
+          <t>[-0.31, -0.31]</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>[1.05, 1.57]</t>
+          <t>[ 1.05,  1.05]</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>[1.02, 1.48]</t>
+          <t>[ 1.02,  1.02]</t>
         </is>
       </c>
     </row>
@@ -7208,7 +7208,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[-0.21, 0.39]</t>
+          <t>[-0.21, -0.21]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>[-0.46, 0.06]</t>
+          <t>[-0.46, -0.46]</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -7238,7 +7238,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>[0.87, 1.28]</t>
+          <t>[ 0.87,  0.87]</t>
         </is>
       </c>
     </row>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[-0.58, -0.01]</t>
+          <t>[-0.58, -0.58]</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -7270,7 +7270,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[-0.26, 0.22]</t>
+          <t>[-0.26, -0.26]</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -7285,7 +7285,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>[0.85, 1.29]</t>
+          <t>[ 0.85,  0.85]</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -7307,7 +7307,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[-0.27, 0.45]</t>
+          <t>[-0.27, -0.27]</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[-0.3, 0.48]</t>
+          <t>[-0.30, -0.30]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[-0.07, 0.54]</t>
+          <t>[-0.07, -0.07]</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>[-0.48, 0.19]</t>
+          <t>[-0.48, -0.48]</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>[0.8, 1.28]</t>
+          <t>[ 0.80,  0.80]</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -7357,7 +7357,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>[0.84, 1.3]</t>
+          <t>[ 0.84,  0.84]</t>
         </is>
       </c>
     </row>
@@ -7374,7 +7374,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[-0.2, 0.41]</t>
+          <t>[-0.20, -0.20]</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[0.02, 0.69]</t>
+          <t>[ 0.02,  0.02]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -7394,7 +7394,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[-0.52, 0.01]</t>
+          <t>[-0.52, -0.52]</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>[-0.6, -0.02]</t>
+          <t>[-0.60, -0.60]</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>[0.69, 1.06]</t>
+          <t>[ 0.69,  0.69]</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>[0.73, 1.12]</t>
+          <t>[ 0.73,  0.73]</t>
         </is>
       </c>
     </row>
@@ -7478,7 +7478,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[0.53, 0.74]</t>
+          <t>[ 0.53,  0.53]</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.59, 0.81]</t>
+          <t>[ 0.59,  0.59]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -7498,7 +7498,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[0.48, 0.66]</t>
+          <t>[ 0.48,  0.48]</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -7508,7 +7508,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>[0.51, 0.7]</t>
+          <t>[ 0.51,  0.51]</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -7518,7 +7518,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>[0.31, 0.45]</t>
+          <t>[ 0.31,  0.31]</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>[0.29, 0.42]</t>
+          <t>[ 0.29,  0.29]</t>
         </is>
       </c>
     </row>
@@ -7545,7 +7545,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[0.13, 0.48]</t>
+          <t>[ 0.13,  0.13]</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -7555,7 +7555,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.07, 0.59]</t>
+          <t>[ 0.07,  0.07]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[0.17, 0.44]</t>
+          <t>[ 0.17,  0.17]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -7575,7 +7575,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>[0.16, 0.42]</t>
+          <t>[ 0.16,  0.16]</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -7585,7 +7585,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>[0.16, 0.46]</t>
+          <t>[ 0.16,  0.16]</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -7595,7 +7595,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>[0.06, 0.5]</t>
+          <t>[ 0.06,  0.06]</t>
         </is>
       </c>
     </row>
@@ -7612,7 +7612,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[0.14, 0.85]</t>
+          <t>[ 0.14,  0.14]</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -7622,7 +7622,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.03, 1.1]</t>
+          <t>[ 0.03,  0.03]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -7632,7 +7632,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[0.06, 0.76]</t>
+          <t>[ 0.06,  0.06]</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -7642,7 +7642,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>[0.06, 0.73]</t>
+          <t>[ 0.06,  0.06]</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -7653,6 +7653,11 @@
       <c r="L52" t="inlineStr">
         <is>
           <t>0.00</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
     </row>
@@ -7669,7 +7674,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[-0.88, 0.19]</t>
+          <t>[-0.88, -0.88]</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -7679,7 +7684,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[-0.88, 0.43]</t>
+          <t>[-0.88, -0.88]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -7689,7 +7694,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[-0.89, -0.03]</t>
+          <t>[-0.89, -0.89]</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -7699,7 +7704,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>[-0.66, 0.18]</t>
+          <t>[-0.66, -0.66]</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -7709,7 +7714,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>[-0.29, 0.74]</t>
+          <t>[-0.29, -0.29]</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -7719,7 +7724,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>[-0.88, 0.58]</t>
+          <t>[-0.88, -0.88]</t>
         </is>
       </c>
     </row>
@@ -7736,7 +7741,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[-0.59, 0.87]</t>
+          <t>[-0.59, -0.59]</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -7746,7 +7751,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[-1, 0.97]</t>
+          <t>[-1.00, -1.00]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -7756,7 +7761,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[-0.79, 0.98]</t>
+          <t>[-0.79, -0.79]</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -7766,7 +7771,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>[-0.82, 0.88]</t>
+          <t>[-0.81, -0.81]</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -7776,12 +7781,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>[-0.24, 0.25]</t>
+          <t>[-0.21, -0.21]</t>
         </is>
       </c>
     </row>
@@ -7798,7 +7803,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[-0.82, 0.97]</t>
+          <t>[-0.82, -0.82]</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -7808,7 +7813,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[-1, 1]</t>
+          <t>[-1.00, -1.00]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -7818,7 +7823,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[-1, 1]</t>
+          <t>[-1.00, -1.00]</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -7828,7 +7833,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>[-1, 0.76]</t>
+          <t>[-1.00, -1.00]</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -7838,12 +7843,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>[-0.24, 0.93]</t>
+          <t>[-0.27, -0.27]</t>
         </is>
       </c>
     </row>
@@ -7897,7 +7902,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[0.59, 0.64]</t>
+          <t>[ 0.59,  0.59]</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -7907,7 +7912,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.55, 0.6]</t>
+          <t>[ 0.55,  0.55]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -7917,7 +7922,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[0.51, 0.56]</t>
+          <t>[ 0.51,  0.51]</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -7927,7 +7932,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>[0.45, 0.49]</t>
+          <t>[ 0.45,  0.45]</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -7974,17 +7979,17 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>[13.7, 16.88]</t>
+          <t>[13.70, 13.70]</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>14.29</t>
+          <t>14.30</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>[12.42, 16.45]</t>
+          <t>[12.42, 12.42]</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8006,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[0.13, 0.25]</t>
+          <t>[ 0.13,  0.13]</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -8123,7 +8128,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[3.7, 4]</t>
+          <t>[ 3.70,  3.70]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -8133,7 +8138,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[3.83, 4.14]</t>
+          <t>[ 3.83,  3.83]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -8143,7 +8148,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[1.77, 2.05]</t>
+          <t>[ 1.77,  1.77]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -8153,7 +8158,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[1.69, 1.97]</t>
+          <t>[ 1.69,  1.69]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -8163,7 +8168,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[39.01, 49.54]</t>
+          <t>[39.01, 39.01]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -8173,7 +8178,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[36.82, 46.8]</t>
+          <t>[36.82, 36.82]</t>
         </is>
       </c>
     </row>
@@ -8227,7 +8232,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.2, 0.46]</t>
+          <t>[ 0.20,  0.20]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -8237,7 +8242,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.11, 0.13]</t>
+          <t>[-0.11, -0.11]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -8247,7 +8252,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[-0.25, -0.01]</t>
+          <t>[-0.25, -0.25]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -8257,7 +8262,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[-0.1, 0.12]</t>
+          <t>[-0.10, -0.10]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -8267,7 +8272,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[1.04, 1.4]</t>
+          <t>[ 1.04,  1.04]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -8277,7 +8282,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[1.26, 1.6]</t>
+          <t>[ 1.26,  1.26]</t>
         </is>
       </c>
     </row>
@@ -8294,7 +8299,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.49, -0.01]</t>
+          <t>[-0.49, -0.49]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -8304,7 +8309,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-0.21, 0.2]</t>
+          <t>[-0.21, -0.21]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -8314,7 +8319,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[0.01, 0.37]</t>
+          <t>[ 0.01,  0.01]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -8324,7 +8329,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-0.26, 0.08]</t>
+          <t>[-0.26, -0.26]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -8334,7 +8339,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[0.85, 1.32]</t>
+          <t>[ 0.85,  0.85]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -8344,7 +8349,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0.61, 0.93]</t>
+          <t>[ 0.61,  0.61]</t>
         </is>
       </c>
     </row>
@@ -8361,7 +8366,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.01, 0.01]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -8371,7 +8376,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-0.02, -0.01]</t>
+          <t>[-0.02, -0.02]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -8381,7 +8386,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[0, 0.01]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -8391,7 +8396,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[0, 0.01]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -8401,7 +8406,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[0.99, 1]</t>
+          <t>[ 0.99,  0.99]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -8411,7 +8416,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1, 1.01]</t>
+          <t>[ 1.00,  1.00]</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8433,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.07, 0.1]</t>
+          <t>[-0.07, -0.07]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -8438,7 +8443,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-0.05, 0.11]</t>
+          <t>[-0.05, -0.05]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -8448,7 +8453,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[-0.18, -0.03]</t>
+          <t>[-0.18, -0.18]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -8458,7 +8463,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[-0.19, -0.06]</t>
+          <t>[-0.19, -0.19]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -8468,7 +8473,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[0.84, 1.02]</t>
+          <t>[ 0.84,  0.84]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -8478,7 +8483,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[0.83, 0.99]</t>
+          <t>[ 0.83,  0.83]</t>
         </is>
       </c>
     </row>
@@ -8515,7 +8520,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[1.01, 1.06]</t>
+          <t>[ 1.01,  1.01]</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -8525,7 +8530,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[1.04, 1.08]</t>
+          <t>[ 1.04,  1.04]</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8621,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[0, 0.01]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -8626,7 +8631,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0, 0.01]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -8636,7 +8641,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[-0.01, 0]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -8646,7 +8651,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[0, 0]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -8656,7 +8661,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[0.99, 1]</t>
+          <t>[ 0.99,  0.99]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -8666,7 +8671,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0.99, 1]</t>
+          <t>[ 0.99,  0.99]</t>
         </is>
       </c>
     </row>
@@ -9090,7 +9095,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[-0.35, 0.59]</t>
+          <t>[-0.35, -0.35]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -9100,7 +9105,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[-0.15, 0.87]</t>
+          <t>[-0.15, -0.15]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -9110,7 +9115,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[-0.16, 0.71]</t>
+          <t>[-0.16, -0.16]</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -9120,7 +9125,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[-0.8, 0.08]</t>
+          <t>[-0.80, -0.80]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -9130,7 +9135,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[0.56, 1.13]</t>
+          <t>[ 0.56,  0.56]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -9140,7 +9145,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[0.74, 1.47]</t>
+          <t>[ 0.74,  0.74]</t>
         </is>
       </c>
     </row>
@@ -9157,7 +9162,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[-0.73, 1.07]</t>
+          <t>[-0.73, -0.73]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -9167,7 +9172,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[-1.7, 0.24]</t>
+          <t>[-1.70, -1.70]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -9177,7 +9182,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[-0.66, 1]</t>
+          <t>[-0.66, -0.66]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -9187,7 +9192,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[-0.34, 1.34]</t>
+          <t>[-0.34, -0.34]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -9197,7 +9202,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[0.84, 3.49]</t>
+          <t>[ 0.84,  0.84]</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -9207,7 +9212,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>[0.6, 2.35]</t>
+          <t>[ 0.60,  0.60]</t>
         </is>
       </c>
     </row>
@@ -9244,7 +9249,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[0.94, 1.05]</t>
+          <t>[ 0.94,  0.94]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -9254,7 +9259,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[0.98, 1.1]</t>
+          <t>[ 0.98,  0.98]</t>
         </is>
       </c>
     </row>
@@ -10159,7 +10164,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[0.55, 0.75]</t>
+          <t>[ 0.55,  0.55]</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -10169,7 +10174,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.62, 0.84]</t>
+          <t>[ 0.62,  0.62]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -10179,7 +10184,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[0.54, 0.72]</t>
+          <t>[ 0.54,  0.54]</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -10189,7 +10194,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>[0.54, 0.73]</t>
+          <t>[ 0.54,  0.54]</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -10199,7 +10204,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>[0.39, 0.55]</t>
+          <t>[ 0.39,  0.39]</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -10209,7 +10214,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>[0.09, 2.05]</t>
+          <t>[ 0.09,  0.09]</t>
         </is>
       </c>
     </row>
@@ -10226,7 +10231,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[0.13, 0.51]</t>
+          <t>[ 0.13,  0.13]</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -10236,7 +10241,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.08, 0.52]</t>
+          <t>[ 0.08,  0.08]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -10246,7 +10251,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[0.18, 0.45]</t>
+          <t>[ 0.18,  0.18]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -10256,7 +10261,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>[0.16, 0.42]</t>
+          <t>[ 0.16,  0.16]</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -10266,7 +10271,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>[0.17, 0.47]</t>
+          <t>[ 0.17,  0.17]</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -10276,7 +10281,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>[0.08, 0.49]</t>
+          <t>[ 0.08,  0.08]</t>
         </is>
       </c>
     </row>
@@ -10293,7 +10298,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[0.12, 0.91]</t>
+          <t>[ 0.12,  0.12]</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -10303,7 +10308,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.02, 1.22]</t>
+          <t>[ 0.02,  0.02]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -10313,7 +10318,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[0.1, 0.65]</t>
+          <t>[ 0.10,  0.10]</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -10323,7 +10328,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>[0.1, 0.69]</t>
+          <t>[ 0.10,  0.10]</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -10338,7 +10343,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>[0, 35.18]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
     </row>
@@ -10355,7 +10360,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[-0.82, 0.24]</t>
+          <t>[-0.82, -0.82]</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -10365,7 +10370,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[-0.88, 0.41]</t>
+          <t>[-0.88, -0.88]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -10375,7 +10380,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[-0.86, -0.08]</t>
+          <t>[-0.86, -0.86]</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -10385,7 +10390,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>[-0.72, 0.03]</t>
+          <t>[-0.72, -0.72]</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -10395,7 +10400,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>[-0.27, 0.65]</t>
+          <t>[-0.27, -0.27]</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -10405,7 +10410,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>[-0.93, 0.76]</t>
+          <t>[-0.93, -0.93]</t>
         </is>
       </c>
     </row>
@@ -10422,7 +10427,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[-0.6, 0.87]</t>
+          <t>[-0.60, -0.60]</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -10432,7 +10437,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[-0.99, 0.88]</t>
+          <t>[-0.99, -0.99]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -10442,7 +10447,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[-0.58, 0.96]</t>
+          <t>[-0.58, -0.58]</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -10452,7 +10457,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>[-0.65, 0.48]</t>
+          <t>[-0.65, -0.65]</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -10467,7 +10472,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>[-0.86, 0.86]</t>
+          <t>[-0.86, -0.86]</t>
         </is>
       </c>
     </row>
@@ -10484,7 +10489,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[-0.86, 0.96]</t>
+          <t>[-0.86, -0.86]</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -10494,7 +10499,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[-1, 1]</t>
+          <t>[-1.00, -1.00]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -10504,7 +10509,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[-1, 1]</t>
+          <t>[-1.00, -1.00]</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -10514,7 +10519,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>[-0.99, 0.4]</t>
+          <t>[-0.99, -0.99]</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -10529,7 +10534,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>[0.61, 0.98]</t>
+          <t>[ 0.62,  0.62]</t>
         </is>
       </c>
     </row>
@@ -10583,7 +10588,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[0.58, 0.64]</t>
+          <t>[ 0.58,  0.58]</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -10593,7 +10598,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.55, 0.6]</t>
+          <t>[ 0.55,  0.55]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -10603,7 +10608,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[0.51, 0.55]</t>
+          <t>[ 0.51,  0.51]</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -10613,7 +10618,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>[0.45, 0.49]</t>
+          <t>[ 0.45,  0.45]</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -10660,7 +10665,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>[13.88, 16.98]</t>
+          <t>[13.88, 13.88]</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -10670,7 +10675,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>[12.96, 16.1]</t>
+          <t>[12.96, 12.96]</t>
         </is>
       </c>
     </row>
@@ -10687,7 +10692,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[0.13, 0.26]</t>
+          <t>[ 0.13,  0.13]</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -10809,7 +10814,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[3.69, 3.98]</t>
+          <t>[ 3.69,  3.69]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -10819,7 +10824,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[3.82, 4.14]</t>
+          <t>[ 3.82,  3.82]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -10829,7 +10834,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[1.8, 2.07]</t>
+          <t>[ 1.80,  1.80]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -10839,7 +10844,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[1.69, 1.96]</t>
+          <t>[ 1.69,  1.69]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -10849,7 +10854,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[39.28, 49.75]</t>
+          <t>[39.28, 39.28]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -10859,7 +10864,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[36.26, 46.2]</t>
+          <t>[36.26, 36.26]</t>
         </is>
       </c>
     </row>
@@ -10913,7 +10918,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.13, 0.39]</t>
+          <t>[ 0.13,  0.13]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -10923,7 +10928,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.14, 0.11]</t>
+          <t>[-0.14, -0.14]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -10933,7 +10938,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[-0.22, 0.04]</t>
+          <t>[-0.22, -0.22]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -10943,7 +10948,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[-0.07, 0.16]</t>
+          <t>[-0.07, -0.07]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -10953,7 +10958,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[1.06, 1.33]</t>
+          <t>[ 1.06,  1.06]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -10963,7 +10968,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[1.04, 1.33]</t>
+          <t>[ 1.04,  1.04]</t>
         </is>
       </c>
     </row>
@@ -10980,7 +10985,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.5, -0.05]</t>
+          <t>[-0.50, -0.50]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -10990,7 +10995,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-0.21, 0.2]</t>
+          <t>[-0.21, -0.21]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -11000,7 +11005,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[0.03, 0.38]</t>
+          <t>[ 0.03,  0.03]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -11010,7 +11015,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-0.27, 0.07]</t>
+          <t>[-0.27, -0.27]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -11020,7 +11025,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[0.85, 1.24]</t>
+          <t>[ 0.85,  0.85]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -11030,7 +11035,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0.66, 0.99]</t>
+          <t>[ 0.66,  0.66]</t>
         </is>
       </c>
     </row>
@@ -11047,7 +11052,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.01, 0.01]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -11057,7 +11062,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-0.02, -0.01]</t>
+          <t>[-0.02, -0.02]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -11067,7 +11072,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[0, 0.01]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -11077,7 +11082,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[0, 0.01]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -11087,7 +11092,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[0.99, 1]</t>
+          <t>[ 0.99,  0.99]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -11097,7 +11102,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1, 1.01]</t>
+          <t>[ 1.00,  1.00]</t>
         </is>
       </c>
     </row>
@@ -11114,7 +11119,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.05, 0.11]</t>
+          <t>[-0.05, -0.05]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -11124,7 +11129,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-0.04, 0.11]</t>
+          <t>[-0.04, -0.04]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -11134,7 +11139,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[-0.21, -0.08]</t>
+          <t>[-0.21, -0.21]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -11144,7 +11149,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[-0.17, -0.05]</t>
+          <t>[-0.17, -0.17]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -11154,7 +11159,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[0.83, 0.98]</t>
+          <t>[ 0.83,  0.83]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -11164,7 +11169,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[0.8, 0.93]</t>
+          <t>[ 0.80,  0.80]</t>
         </is>
       </c>
     </row>
@@ -11201,7 +11206,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[1.02, 1.06]</t>
+          <t>[ 1.02,  1.02]</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -11211,7 +11216,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[1.04, 1.07]</t>
+          <t>[ 1.04,  1.04]</t>
         </is>
       </c>
     </row>
@@ -11228,7 +11233,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[0.03, 0.11]</t>
+          <t>[ 0.03,  0.03]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -11238,7 +11243,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[-0.01, 0.06]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -11248,7 +11253,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[-0.1, -0.02]</t>
+          <t>[-0.10, -0.10]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -11258,7 +11263,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[-0.06, 0.01]</t>
+          <t>[-0.06, -0.06]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -11268,7 +11273,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>[1.03, 1.11]</t>
+          <t>[ 1.03,  1.03]</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -11278,7 +11283,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[1.08, 1.19]</t>
+          <t>[ 1.08,  1.08]</t>
         </is>
       </c>
     </row>
@@ -11776,7 +11781,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[-0.33, 0.6]</t>
+          <t>[-0.33, -0.33]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -11786,7 +11791,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[-0.15, 0.87]</t>
+          <t>[-0.15, -0.15]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -11796,7 +11801,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[-0.11, 0.75]</t>
+          <t>[-0.11, -0.11]</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -11806,7 +11811,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[-0.8, 0.08]</t>
+          <t>[-0.80, -0.80]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -11816,7 +11821,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[0.53, 1.07]</t>
+          <t>[ 0.53,  0.53]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -11826,7 +11831,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[0.71, 1.45]</t>
+          <t>[ 0.71,  0.71]</t>
         </is>
       </c>
     </row>
@@ -11843,7 +11848,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[-0.71, 1.08]</t>
+          <t>[-0.71, -0.71]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -11853,7 +11858,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[-1.69, 0.26]</t>
+          <t>[-1.69, -1.69]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -11863,7 +11868,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[-0.76, 0.9]</t>
+          <t>[-0.76, -0.76]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -11873,7 +11878,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[-0.35, 1.32]</t>
+          <t>[-0.35, -0.35]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -11883,7 +11888,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[0.9, 3.77]</t>
+          <t>[ 0.90,  0.90]</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -11893,7 +11898,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>[0.67, 2.73]</t>
+          <t>[ 0.67,  0.67]</t>
         </is>
       </c>
     </row>
@@ -11930,7 +11935,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[0.94, 1.06]</t>
+          <t>[ 0.94,  0.94]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -11940,7 +11945,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[1, 1.12]</t>
+          <t>[ 1.00,  1.00]</t>
         </is>
       </c>
     </row>
@@ -12845,7 +12850,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[0.55, 0.75]</t>
+          <t>[ 0.55,  0.55]</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -12855,7 +12860,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.62, 0.84]</t>
+          <t>[ 0.62,  0.62]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -12865,7 +12870,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[0.54, 0.73]</t>
+          <t>[ 0.54,  0.54]</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -12875,7 +12880,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>[0.54, 0.73]</t>
+          <t>[ 0.54,  0.54]</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -12885,7 +12890,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>[0.4, 0.55]</t>
+          <t>[ 0.40,  0.40]</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -12895,7 +12900,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>[0, 41.53]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
     </row>
@@ -12912,7 +12917,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[0.12, 0.54]</t>
+          <t>[ 0.12,  0.12]</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -12922,7 +12927,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.09, 0.51]</t>
+          <t>[ 0.09,  0.09]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -12932,7 +12937,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[0.18, 0.45]</t>
+          <t>[ 0.18,  0.18]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -12942,7 +12947,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>[0.16, 0.42]</t>
+          <t>[ 0.16,  0.16]</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -12957,7 +12962,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>[0.02, 0.48]</t>
+          <t>[ 0.02,  0.02]</t>
         </is>
       </c>
     </row>
@@ -12974,7 +12979,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[0.09, 0.93]</t>
+          <t>[ 0.09,  0.09]</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -12984,7 +12989,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.02, 1.34]</t>
+          <t>[ 0.02,  0.02]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -12994,7 +12999,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[0.07, 0.73]</t>
+          <t>[ 0.07,  0.07]</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -13004,7 +13009,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>[0.1, 0.68]</t>
+          <t>[ 0.10,  0.10]</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -13019,7 +13024,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>[0.01, 1.06]</t>
+          <t>[ 0.01,  0.01]</t>
         </is>
       </c>
     </row>
@@ -13036,7 +13041,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[-0.84, 0.23]</t>
+          <t>[-0.84, -0.84]</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -13046,7 +13051,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[-0.88, 0.41]</t>
+          <t>[-0.88, -0.88]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -13056,7 +13061,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[-0.86, -0.07]</t>
+          <t>[-0.86, -0.86]</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -13066,7 +13071,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>[-0.71, 0.02]</t>
+          <t>[-0.71, -0.71]</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -13081,7 +13086,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>[-1, 0.99]</t>
+          <t>[-1.00, -1.00]</t>
         </is>
       </c>
     </row>
@@ -13098,7 +13103,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[-0.81, 0.94]</t>
+          <t>[-0.81, -0.81]</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -13108,7 +13113,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[-0.99, 0.93]</t>
+          <t>[-0.99, -0.99]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -13118,7 +13123,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[-0.75, 0.98]</t>
+          <t>[-0.75, -0.75]</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -13128,7 +13133,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>[-0.66, 0.51]</t>
+          <t>[-0.66, -0.66]</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -13143,7 +13148,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>[-0.51, 0.5]</t>
+          <t>[-0.52, -0.52]</t>
         </is>
       </c>
     </row>
@@ -13160,7 +13165,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[-0.98, 1]</t>
+          <t>[-0.98, -0.98]</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -13170,7 +13175,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[-1, 1]</t>
+          <t>[-1.00, -1.00]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -13180,7 +13185,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[-1, 1]</t>
+          <t>[-1.00, -1.00]</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -13190,7 +13195,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>[-0.99, 0.38]</t>
+          <t>[-0.99, -0.99]</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -13205,7 +13210,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>[0.43, 0.6]</t>
+          <t>[ 0.44,  0.44]</t>
         </is>
       </c>
     </row>
@@ -13259,7 +13264,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[0.58, 0.64]</t>
+          <t>[ 0.58,  0.58]</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -13269,7 +13274,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.55, 0.6]</t>
+          <t>[ 0.55,  0.55]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -13279,7 +13284,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[0.51, 0.56]</t>
+          <t>[ 0.51,  0.51]</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -13289,7 +13294,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>[0.45, 0.49]</t>
+          <t>[ 0.45,  0.45]</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -13336,7 +13341,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>[14.22, 17.22]</t>
+          <t>[14.22, 14.22]</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -13346,7 +13351,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>[11.91, 14.84]</t>
+          <t>[11.91, 11.91]</t>
         </is>
       </c>
     </row>
@@ -13363,7 +13368,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[0.13, 0.26]</t>
+          <t>[ 0.13,  0.13]</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -13485,7 +13490,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[3.69, 3.99]</t>
+          <t>[ 3.69,  3.69]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -13495,7 +13500,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[3.82, 4.14]</t>
+          <t>[ 3.82,  3.82]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -13505,7 +13510,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[1.79, 2.07]</t>
+          <t>[ 1.79,  1.79]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -13515,7 +13520,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[1.69, 1.96]</t>
+          <t>[ 1.69,  1.69]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -13525,7 +13530,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[39.29, 49.78]</t>
+          <t>[39.29, 39.29]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -13535,7 +13540,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[36.34, 46.62]</t>
+          <t>[36.34, 36.34]</t>
         </is>
       </c>
     </row>
@@ -13589,7 +13594,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.2, 0.46]</t>
+          <t>[ 0.20,  0.20]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -13599,7 +13604,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.14, 0.09]</t>
+          <t>[-0.14, -0.14]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -13609,7 +13614,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[-0.26, -0.02]</t>
+          <t>[-0.26, -0.26]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -13619,7 +13624,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[-0.06, 0.15]</t>
+          <t>[-0.06, -0.06]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -13629,7 +13634,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[0.94, 1.26]</t>
+          <t>[ 0.94,  0.94]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -13639,7 +13644,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[1.14, 1.46]</t>
+          <t>[ 1.14,  1.14]</t>
         </is>
       </c>
     </row>
@@ -13656,7 +13661,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.49, -0.01]</t>
+          <t>[-0.49, -0.49]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -13666,7 +13671,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-0.2, 0.21]</t>
+          <t>[-0.20, -0.20]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -13676,7 +13681,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[0.02, 0.38]</t>
+          <t>[ 0.02,  0.02]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -13686,7 +13691,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-0.28, 0.06]</t>
+          <t>[-0.28, -0.28]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -13696,7 +13701,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[0.91, 1.4]</t>
+          <t>[ 0.91,  0.91]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -13706,7 +13711,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0.65, 0.96]</t>
+          <t>[ 0.65,  0.65]</t>
         </is>
       </c>
     </row>
@@ -13723,7 +13728,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.01, 0.01]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -13733,7 +13738,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-0.02, -0.01]</t>
+          <t>[-0.02, -0.02]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -13743,7 +13748,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[-0.01, 0.01]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -13753,7 +13758,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[0, 0.01]</t>
+          <t>[ 0.00,  0.00]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -13763,7 +13768,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[0.99, 1.01]</t>
+          <t>[ 0.99,  0.99]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -13773,7 +13778,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1, 1.01]</t>
+          <t>[ 1.00,  1.00]</t>
         </is>
       </c>
     </row>
@@ -13790,7 +13795,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.04, 0.11]</t>
+          <t>[-0.04, -0.04]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -13800,7 +13805,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-0.05, 0.1]</t>
+          <t>[-0.05, -0.05]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -13810,7 +13815,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[-0.22, -0.08]</t>
+          <t>[-0.22, -0.22]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -13820,7 +13825,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[-0.17, -0.05]</t>
+          <t>[-0.17, -0.17]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -13830,7 +13835,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[0.81, 0.96]</t>
+          <t>[ 0.81,  0.81]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -13840,7 +13845,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[0.8, 0.94]</t>
+          <t>[ 0.80,  0.80]</t>
         </is>
       </c>
     </row>
@@ -13877,7 +13882,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[1.01, 1.06]</t>
+          <t>[ 1.01,  1.01]</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -13887,7 +13892,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[1.04, 1.08]</t>
+          <t>[ 1.04,  1.04]</t>
         </is>
       </c>
     </row>
@@ -13941,7 +13946,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-0.01, 0.07]</t>
+          <t>[-0.01, -0.01]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -13951,7 +13956,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.02, 0.09]</t>
+          <t>[ 0.02,  0.02]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -13961,7 +13966,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[-0.07, 0]</t>
+          <t>[-0.07, -0.07]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -13971,7 +13976,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[-0.08, -0.02]</t>
+          <t>[-0.08, -0.08]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -13981,7 +13986,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[1.07, 1.16]</t>
+          <t>[ 1.07,  1.07]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -13991,7 +13996,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[1.06, 1.15]</t>
+          <t>[ 1.06,  1.06]</t>
         </is>
       </c>
     </row>
@@ -14452,7 +14457,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[-0.35, 0.59]</t>
+          <t>[-0.35, -0.35]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -14462,7 +14467,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[-0.16, 0.86]</t>
+          <t>[-0.16, -0.16]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -14472,7 +14477,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[-0.17, 0.7]</t>
+          <t>[-0.17, -0.17]</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -14482,7 +14487,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[-0.79, 0.09]</t>
+          <t>[-0.79, -0.79]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -14492,7 +14497,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[0.56, 1.15]</t>
+          <t>[ 0.56,  0.56]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -14502,7 +14507,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[0.73, 1.45]</t>
+          <t>[ 0.73,  0.73]</t>
         </is>
       </c>
     </row>
@@ -14519,7 +14524,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[-0.71, 1.09]</t>
+          <t>[-0.71, -0.71]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -14529,7 +14534,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[-1.67, 0.29]</t>
+          <t>[-1.67, -1.67]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -14539,7 +14544,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[-0.66, 0.99]</t>
+          <t>[-0.66, -0.66]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -14549,7 +14554,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[-0.37, 1.3]</t>
+          <t>[-0.37, -0.37]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -14559,7 +14564,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[0.88, 3.72]</t>
+          <t>[ 0.88,  0.88]</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -14569,7 +14574,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>[0.67, 2.57]</t>
+          <t>[ 0.67,  0.67]</t>
         </is>
       </c>
     </row>
@@ -14606,7 +14611,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[0.94, 1.05]</t>
+          <t>[ 0.94,  0.94]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -14616,7 +14621,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[0.98, 1.1]</t>
+          <t>[ 0.98,  0.98]</t>
         </is>
       </c>
     </row>
@@ -15521,7 +15526,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[0.55, 0.75]</t>
+          <t>[ 0.55,  0.55]</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -15531,7 +15536,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.62, 0.84]</t>
+          <t>[ 0.62,  0.62]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -15541,7 +15546,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[0.54, 0.72]</t>
+          <t>[ 0.54,  0.54]</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -15551,7 +15556,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>[0.54, 0.73]</t>
+          <t>[ 0.54,  0.54]</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -15561,7 +15566,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>[0.39, 0.55]</t>
+          <t>[ 0.39,  0.39]</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -15571,7 +15576,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>[0.4, 0.56]</t>
+          <t>[ 0.40,  0.40]</t>
         </is>
       </c>
     </row>
@@ -15588,7 +15593,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[0.14, 0.54]</t>
+          <t>[ 0.14,  0.14]</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -15598,7 +15603,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.08, 0.5]</t>
+          <t>[ 0.08,  0.08]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -15608,7 +15613,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[0.17, 0.45]</t>
+          <t>[ 0.17,  0.17]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -15618,7 +15623,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>[0.16, 0.41]</t>
+          <t>[ 0.16,  0.16]</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -15628,7 +15633,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>[0.16, 0.46]</t>
+          <t>[ 0.16,  0.16]</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -15638,7 +15643,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>[0.08, 0.47]</t>
+          <t>[ 0.08,  0.08]</t>
         </is>
       </c>
     </row>
@@ -15655,7 +15660,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[0.11, 0.91]</t>
+          <t>[ 0.11,  0.11]</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -15665,7 +15670,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.01, 1.45]</t>
+          <t>[ 0.01,  0.01]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -15675,7 +15680,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[0.09, 0.65]</t>
+          <t>[ 0.09,  0.09]</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -15685,7 +15690,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>[0.11, 0.67]</t>
+          <t>[ 0.11,  0.11]</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -15712,7 +15717,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[-0.82, 0.23]</t>
+          <t>[-0.82, -0.82]</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -15722,7 +15727,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[-0.86, 0.4]</t>
+          <t>[-0.86, -0.86]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -15732,7 +15737,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[-0.86, -0.07]</t>
+          <t>[-0.86, -0.86]</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -15742,7 +15747,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>[-0.69, 0.06]</t>
+          <t>[-0.69, -0.69]</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -15752,7 +15757,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>[-0.32, 0.63]</t>
+          <t>[-0.32, -0.32]</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -15762,7 +15767,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>[-0.93, 0.53]</t>
+          <t>[-0.93, -0.93]</t>
         </is>
       </c>
     </row>
@@ -15779,7 +15784,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[-0.71, 0.91]</t>
+          <t>[-0.71, -0.71]</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -15789,7 +15794,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[-0.99, 0.91]</t>
+          <t>[-0.99, -0.99]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -15799,7 +15804,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[-0.61, 0.97]</t>
+          <t>[-0.62, -0.62]</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -15809,7 +15814,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>[-0.65, 0.43]</t>
+          <t>[-0.65, -0.65]</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -15836,7 +15841,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[-0.91, 0.97]</t>
+          <t>[-0.91, -0.91]</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -15846,7 +15851,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[-1, 1]</t>
+          <t>[-1.00, -1.00]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -15856,7 +15861,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[-1, 0.99]</t>
+          <t>[-1.00, -1.00]</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -15866,7 +15871,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>[-0.99, 0.38]</t>
+          <t>[-0.99, -0.99]</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -15930,7 +15935,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[0.58, 0.64]</t>
+          <t>[ 0.58,  0.58]</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -15940,7 +15945,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.55, 0.6]</t>
+          <t>[ 0.55,  0.55]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -15950,7 +15955,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[0.51, 0.55]</t>
+          <t>[ 0.51,  0.51]</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -15960,7 +15965,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>[0.45, 0.49]</t>
+          <t>[ 0.45,  0.45]</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -16007,7 +16012,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>[13.46, 16.47]</t>
+          <t>[13.46, 13.46]</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -16017,7 +16022,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>[10.23, 16.17]</t>
+          <t>[10.23, 10.23]</t>
         </is>
       </c>
     </row>
@@ -16034,7 +16039,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[0.14, 0.27]</t>
+          <t>[ 0.14,  0.14]</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
